--- a/Design/Excel/ET/Datas/AIConfig.xlsx
+++ b/Design/Excel/ET/Datas/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -15,17 +15,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>#</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+  <si>
+    <t>##var</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>AIConfigId</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>NodeParams</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>所属ai</t>
   </si>
   <si>
@@ -41,30 +68,6 @@
     <t>节点参数</t>
   </si>
   <si>
-    <t>AIConfigId</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>NodeParams</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
     <t>AI_Attack</t>
   </si>
   <si>
@@ -75,18 +78,6 @@
   </si>
   <si>
     <t>巡逻</t>
-  </si>
-  <si>
-    <t>##var</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
-  </si>
-  <si>
-    <t>##</t>
   </si>
 </sst>
 </file>
@@ -1058,13 +1049,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G3:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.60833333333333" style="1" customWidth="1"/>
@@ -1077,129 +1068,111 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" ht="16.5" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+    <row r="2" ht="16.5" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <f>C4*100+D4</f>
+        <v>101</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <f>C5*100+D5</f>
+        <v>102</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="3:7">
-      <c r="C6" s="4">
-        <f>D6*100+E6</f>
-        <v>101</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="3:7">
-      <c r="C7" s="4">
-        <f>D7*100+E7</f>
-        <v>102</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1213,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1231,73 +1204,73 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
@@ -1313,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">

--- a/Design/Excel/ET/Datas/AIConfig.xlsx
+++ b/Design/Excel/ET/Datas/AIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="809"/>
+    <workbookView windowHeight="17940" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1140,7 +1140,6 @@
     <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
-        <f>C4*100+D4</f>
         <v>101</v>
       </c>
       <c r="C4" s="4">
@@ -1159,7 +1158,6 @@
     <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
-        <f>C5*100+D5</f>
         <v>102</v>
       </c>
       <c r="C5" s="4">
